--- a/Data/Tags_fields/col_names_wos.xlsx
+++ b/Data/Tags_fields/col_names_wos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcastillot/Dropbox/Tesis/2021/Italy/Urbino/Data/Repos/bibliometrix_dd_europe/Data/Tags_fields/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B726474F-5C48-F14B-B1F0-D654E603E902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6649074C-BB59-4C41-9980-DADA6DC98206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="151">
   <si>
     <t>AU</t>
   </si>
@@ -500,6 +500,15 @@
   </si>
   <si>
     <t xml:space="preserve">Total Times Cited Count </t>
+  </si>
+  <si>
+    <t>Var Type</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Text</t>
   </si>
 </sst>
 </file>
@@ -1370,20 +1379,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="100" zoomScaleSheetLayoutView="156" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -1393,8 +1402,11 @@
       <c r="C1" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1404,8 +1416,11 @@
       <c r="C2" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1415,8 +1430,11 @@
       <c r="C3" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1426,8 +1444,11 @@
       <c r="C4" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1437,8 +1458,11 @@
       <c r="C5" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1448,8 +1472,11 @@
       <c r="C6" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1459,8 +1486,11 @@
       <c r="C7" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1470,8 +1500,11 @@
       <c r="C8" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1481,8 +1514,11 @@
       <c r="C9" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1492,8 +1528,11 @@
       <c r="C10" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1503,8 +1542,11 @@
       <c r="C11" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1514,8 +1556,11 @@
       <c r="C12" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1525,8 +1570,11 @@
       <c r="C13" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1536,8 +1584,11 @@
       <c r="C14" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1547,8 +1598,11 @@
       <c r="C15" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1558,8 +1612,11 @@
       <c r="C16" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1569,8 +1626,11 @@
       <c r="C17" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1580,8 +1640,11 @@
       <c r="C18" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1591,8 +1654,11 @@
       <c r="C19" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1602,8 +1668,11 @@
       <c r="C20" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1613,8 +1682,11 @@
       <c r="C21" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1624,8 +1696,11 @@
       <c r="C22" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1635,8 +1710,11 @@
       <c r="C23" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1646,8 +1724,11 @@
       <c r="C24" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1657,8 +1738,11 @@
       <c r="C25" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1668,8 +1752,11 @@
       <c r="C26" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1679,8 +1766,11 @@
       <c r="C27" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1690,8 +1780,11 @@
       <c r="C28" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1701,8 +1794,11 @@
       <c r="C29" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1712,8 +1808,11 @@
       <c r="C30" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1723,8 +1822,11 @@
       <c r="C31" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1734,8 +1836,11 @@
       <c r="C32" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1745,8 +1850,11 @@
       <c r="C33" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1756,8 +1864,11 @@
       <c r="C34" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1767,8 +1878,11 @@
       <c r="C35" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1778,8 +1892,11 @@
       <c r="C36" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1789,8 +1906,11 @@
       <c r="C37" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1800,8 +1920,11 @@
       <c r="C38" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1811,8 +1934,11 @@
       <c r="C39" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1822,8 +1948,11 @@
       <c r="C40" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1833,8 +1962,11 @@
       <c r="C41" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1844,8 +1976,11 @@
       <c r="C42" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1855,8 +1990,11 @@
       <c r="C43" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1866,8 +2004,11 @@
       <c r="C44" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1877,8 +2018,11 @@
       <c r="C45" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1888,8 +2032,11 @@
       <c r="C46" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1899,8 +2046,11 @@
       <c r="C47" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1910,8 +2060,11 @@
       <c r="C48" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1921,8 +2074,11 @@
       <c r="C49" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1932,8 +2088,11 @@
       <c r="C50" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1943,8 +2102,11 @@
       <c r="C51" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1954,8 +2116,11 @@
       <c r="C52" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1965,8 +2130,11 @@
       <c r="C53" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1976,8 +2144,11 @@
       <c r="C54" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1987,8 +2158,11 @@
       <c r="C55" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1998,8 +2172,11 @@
       <c r="C56" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2009,8 +2186,11 @@
       <c r="C57" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2020,8 +2200,11 @@
       <c r="C58" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2031,8 +2214,11 @@
       <c r="C59" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2042,8 +2228,11 @@
       <c r="C60" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2053,8 +2242,11 @@
       <c r="C61" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2064,8 +2256,11 @@
       <c r="C62" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2075,8 +2270,11 @@
       <c r="C63" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2086,8 +2284,11 @@
       <c r="C64" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2097,8 +2298,11 @@
       <c r="C65" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2108,8 +2312,11 @@
       <c r="C66" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2119,8 +2326,11 @@
       <c r="C67" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2130,8 +2340,11 @@
       <c r="C68" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2141,8 +2354,11 @@
       <c r="C69" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2152,16 +2368,22 @@
       <c r="C70" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2171,8 +2393,11 @@
       <c r="C72" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2182,8 +2407,11 @@
       <c r="C73" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2193,8 +2421,12 @@
       <c r="C74" t="s">
         <v>82</v>
       </c>
+      <c r="D74" t="s">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>